--- a/cosinor_results_weather/best_models_weather.xlsx
+++ b/cosinor_results_weather/best_models_weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>test</t>
   </si>
@@ -49,9 +49,6 @@
     <t>log-likelihood</t>
   </si>
   <si>
-    <t>period(est)</t>
-  </si>
-  <si>
     <t>amplitude</t>
   </si>
   <si>
@@ -79,181 +76,184 @@
     <t>resid_SE</t>
   </si>
   <si>
-    <t>route_0_bad_weather</t>
-  </si>
-  <si>
-    <t>route_0_good_weather</t>
-  </si>
-  <si>
-    <t>route_1_bad_weather</t>
-  </si>
-  <si>
-    <t>route_1_good_weather</t>
-  </si>
-  <si>
-    <t>route_2_bad_weather</t>
-  </si>
-  <si>
-    <t>route_2_good_weather</t>
-  </si>
-  <si>
-    <t>route_3_bad_weather</t>
-  </si>
-  <si>
-    <t>route_3_good_weather</t>
-  </si>
-  <si>
-    <t>route_4_bad_weather</t>
-  </si>
-  <si>
-    <t>route_4_good_weather</t>
-  </si>
-  <si>
-    <t>route_5_bad_weather</t>
-  </si>
-  <si>
-    <t>route_5_good_weather</t>
-  </si>
-  <si>
-    <t>[ 7.60760761 11.61161161 15.91591592]</t>
-  </si>
-  <si>
-    <t>[ 7.50750751 12.11211211 15.31531532]</t>
-  </si>
-  <si>
-    <t>[ 7.60760761 11.61161161 14.71471471 18.01801802 21.42142142]</t>
-  </si>
-  <si>
-    <t>[ 7.60760761 11.81181181 14.61461461 21.22122122]</t>
-  </si>
-  <si>
-    <t>[ 7.90790791 10.91091091 12.51251251 15.61561562]</t>
-  </si>
-  <si>
-    <t>[ 7.70770771 11.11111111 15.61561562]</t>
-  </si>
-  <si>
-    <t>[11.91191191 16.21621622]</t>
-  </si>
-  <si>
-    <t>[11.51151151 15.61561562]</t>
-  </si>
-  <si>
-    <t>[ 7.90790791 11.71171171 16.11611612]</t>
-  </si>
-  <si>
-    <t>[ 7.30730731 12.21221221 15.91591592]</t>
-  </si>
-  <si>
-    <t>[ 7.60760761 11.71171171 15.61561562]</t>
-  </si>
-  <si>
-    <t>[ 7.40740741 12.01201201 15.21521522]</t>
-  </si>
-  <si>
-    <t>[0.13493213 0.12505559 0.13865736]</t>
-  </si>
-  <si>
-    <t>[0.12650569 0.12335167 0.13138749]</t>
-  </si>
-  <si>
-    <t>[0.14121735 0.14281692 0.14190625 0.13860975 0.13206275]</t>
-  </si>
-  <si>
-    <t>[0.13631179 0.14248087 0.1417803  0.13202443]</t>
-  </si>
-  <si>
-    <t>[0.17763287 0.15681927 0.15713023 0.1813045 ]</t>
-  </si>
-  <si>
-    <t>[0.16568749 0.1558144  0.17266513]</t>
-  </si>
-  <si>
-    <t>[0.17313247 0.19686837]</t>
-  </si>
-  <si>
-    <t>[0.17600661 0.18039365]</t>
-  </si>
-  <si>
-    <t>[0.16791099 0.15199801 0.16253534]</t>
-  </si>
-  <si>
-    <t>[0.15159069 0.1507832  0.15887652]</t>
-  </si>
-  <si>
-    <t>[0.06455702 0.06019011 0.06579345]</t>
-  </si>
-  <si>
-    <t>[0.06047605 0.05992115 0.06201452]</t>
-  </si>
-  <si>
-    <t>[ 2.5025025   5.20520521  9.70970971 21.12112112]</t>
-  </si>
-  <si>
-    <t>[ 2.5025025   5.00500501 20.32032032]</t>
-  </si>
-  <si>
-    <t>[ 2.8028028   4.9049049  23.62362362]</t>
-  </si>
-  <si>
-    <t>[ 3.3033033  20.02002002 23.12312312]</t>
-  </si>
-  <si>
-    <t>[ 4.004004    9.70970971 21.62162162 23.72372372]</t>
-  </si>
-  <si>
-    <t>[ 1.5015015   3.7037037  22.22222222]</t>
-  </si>
-  <si>
-    <t>[0.4004004 4.5045045]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[1.5015015 4.9049049]</t>
-  </si>
-  <si>
-    <t>[0.7007007 2.1021021 4.7047047]</t>
-  </si>
-  <si>
-    <t>[ 1.2012012   4.6046046  10.01001001 13.01301301 18.71871872 22.12212212]</t>
-  </si>
-  <si>
-    <t>[1.001001  3.8038038]</t>
-  </si>
-  <si>
-    <t>[0.10621131 0.11115999 0.11974858 0.11925953]</t>
-  </si>
-  <si>
-    <t>[0.10797864 0.11196701 0.11743894]</t>
-  </si>
-  <si>
-    <t>[0.11837412 0.12203405 0.12441029]</t>
-  </si>
-  <si>
-    <t>[0.11813446 0.13015141 0.12586788]</t>
-  </si>
-  <si>
-    <t>[0.12595518 0.15291567 0.137326   0.13401469]</t>
-  </si>
-  <si>
-    <t>[0.1308284  0.12776236 0.13984362]</t>
-  </si>
-  <si>
-    <t>[0.13279938 0.13615522]</t>
-  </si>
-  <si>
-    <t>[0.1178937  0.12100395]</t>
-  </si>
-  <si>
-    <t>[0.12035693 0.12118202 0.12279699]</t>
-  </si>
-  <si>
-    <t>[0.05327896 0.05424148 0.05840034 0.05938396 0.05824462 0.05605097]</t>
-  </si>
-  <si>
-    <t>[0.05359193 0.05483838]</t>
+    <t>route_0_adverse_weather</t>
+  </si>
+  <si>
+    <t>route_0_normal_weather</t>
+  </si>
+  <si>
+    <t>route_1_adverse_weather</t>
+  </si>
+  <si>
+    <t>route_1_normal_weather</t>
+  </si>
+  <si>
+    <t>route_2_adverse_weather</t>
+  </si>
+  <si>
+    <t>route_2_normal_weather</t>
+  </si>
+  <si>
+    <t>route_3_adverse_weather</t>
+  </si>
+  <si>
+    <t>route_3_normal_weather</t>
+  </si>
+  <si>
+    <t>route_4_adverse_weather</t>
+  </si>
+  <si>
+    <t>route_4_normal_weather</t>
+  </si>
+  <si>
+    <t>route_5_adverse_weather</t>
+  </si>
+  <si>
+    <t>route_5_normal_weather</t>
+  </si>
+  <si>
+    <t>[ 7.59159159 11.57957958 15.85585586]</t>
+  </si>
+  <si>
+    <t>[ 7.44744745 12.15615616 15.32732733]</t>
+  </si>
+  <si>
+    <t>[ 7.59159159 11.57957958 14.7027027  18.01801802 21.38138138]</t>
+  </si>
+  <si>
+    <t>[ 7.63963964 11.77177177 14.60660661 21.23723724]</t>
+  </si>
+  <si>
+    <t>[ 7.92792793 10.90690691 12.49249249 15.66366366]</t>
+  </si>
+  <si>
+    <t>[ 7.73573574 11.14714715 15.66366366]</t>
+  </si>
+  <si>
+    <t>[11.91591592 16.19219219]</t>
+  </si>
+  <si>
+    <t>[11.53153153 15.61561562]</t>
+  </si>
+  <si>
+    <t>[ 7.92792793 11.77177177 16.0960961 ]</t>
+  </si>
+  <si>
+    <t>[ 7.35135135 12.2042042  15.9039039 ]</t>
+  </si>
+  <si>
+    <t>[ 7.54354354 11.67567568 15.61561562]</t>
+  </si>
+  <si>
+    <t>[ 7.35135135 11.96396396 15.18318318]</t>
+  </si>
+  <si>
+    <t>[0.13492733 0.1250576  0.13866306]</t>
+  </si>
+  <si>
+    <t>[0.12651164 0.12335187 0.13138822]</t>
+  </si>
+  <si>
+    <t>[0.14121344 0.14281635 0.14190589 0.13860975 0.13206441]</t>
+  </si>
+  <si>
+    <t>[0.13631957 0.14248083 0.14178018 0.13202332]</t>
+  </si>
+  <si>
+    <t>[0.17764119 0.15681993 0.15713447 0.18131225]</t>
+  </si>
+  <si>
+    <t>[0.16570137 0.15581439 0.17266745]</t>
+  </si>
+  <si>
+    <t>[0.17313185 0.19688367]</t>
+  </si>
+  <si>
+    <t>[0.17601315 0.18039365]</t>
+  </si>
+  <si>
+    <t>[0.16790402 0.15200783 0.16253641]</t>
+  </si>
+  <si>
+    <t>[0.15161326 0.15078414 0.1588779 ]</t>
+  </si>
+  <si>
+    <t>[0.06456321 0.06018985 0.06579345]</t>
+  </si>
+  <si>
+    <t>[0.06047886 0.05992229 0.06201381]</t>
+  </si>
+  <si>
+    <t>[ 2.54654655  5.18918919  9.65765766 21.09309309 23.97597598]</t>
+  </si>
+  <si>
+    <t>[ 2.4984985   5.04504505 20.32432432]</t>
+  </si>
+  <si>
+    <t>[ 2.78678679  4.9009009  23.63963964]</t>
+  </si>
+  <si>
+    <t>[ 3.36336336 20.03603604 23.11111111]</t>
+  </si>
+  <si>
+    <t>[ 3.98798799  9.70570571 21.66966967 23.68768769]</t>
+  </si>
+  <si>
+    <t>[ 1.48948949  3.6996997  22.24624625]</t>
+  </si>
+  <si>
+    <t>[0.43243243 4.46846847]</t>
+  </si>
+  <si>
+    <t>[23.97597598]</t>
+  </si>
+  <si>
+    <t>[1.53753754 4.9009009 ]</t>
+  </si>
+  <si>
+    <t>[0.67267267 2.16216216 4.75675676]</t>
+  </si>
+  <si>
+    <t>[ 1.2012012   4.61261261  9.94594595 12.97297297 18.73873874 22.05405405]</t>
+  </si>
+  <si>
+    <t>[0.96096096 3.74774775]</t>
+  </si>
+  <si>
+    <t>[0.10620319 0.11115702 0.11973844 0.11925901 0.1103378 ]</t>
+  </si>
+  <si>
+    <t>[0.1079786  0.11196757 0.11743897]</t>
+  </si>
+  <si>
+    <t>[0.11837267 0.12203415 0.12440853]</t>
+  </si>
+  <si>
+    <t>[0.11813039 0.13014904 0.12586605]</t>
+  </si>
+  <si>
+    <t>[0.12594659 0.15291522 0.13732409 0.13401087]</t>
+  </si>
+  <si>
+    <t>[0.13082751 0.12776206 0.13984121]</t>
+  </si>
+  <si>
+    <t>[0.13279964 0.13615339]</t>
+  </si>
+  <si>
+    <t>[0.13279158]</t>
+  </si>
+  <si>
+    <t>[0.1178917  0.12100432]</t>
+  </si>
+  <si>
+    <t>[0.12035693 0.12118103 0.12279237]</t>
+  </si>
+  <si>
+    <t>[0.05327896 0.05424085 0.05839647 0.05938422 0.05824461 0.05605049]</t>
+  </si>
+  <si>
+    <t>[0.05358928 0.05483748]</t>
   </si>
 </sst>
 </file>
@@ -611,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,13 +678,10 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -717,39 +714,36 @@
         <v>3987.854591434751</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>0.01623103661933264</v>
       </c>
       <c r="M2">
-        <v>0.01623064365044048</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="N2">
-        <v>-4.166777043049526</v>
-      </c>
-      <c r="O2">
-        <v>0.1224340252864876</v>
+        <v>0.1224342245023441</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="S2">
+        <v>0.01338288423031642</v>
       </c>
       <c r="T2">
-        <v>0.01338288423031642</v>
-      </c>
-      <c r="U2">
         <v>0.006820600880431</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -782,39 +776,36 @@
         <v>10857.23550501392</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>0.0117048127290611</v>
       </c>
       <c r="M3">
-        <v>0.01170456427831114</v>
+        <v>2.270500396288119</v>
       </c>
       <c r="N3">
-        <v>-4.009540173500487</v>
-      </c>
-      <c r="O3">
-        <v>0.1196831625124679</v>
+        <v>0.1196834109632179</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="S3">
+        <v>0.01087455877648361</v>
       </c>
       <c r="T3">
-        <v>0.01087455877648361</v>
-      </c>
-      <c r="U3">
         <v>0.005545993221764166</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -847,39 +838,36 @@
         <v>4233.647732851507</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>0.01222235724181091</v>
       </c>
       <c r="M4">
-        <v>0.01222196160008786</v>
+        <v>-3.031526844905466</v>
       </c>
       <c r="N4">
-        <v>-24.31930249025132</v>
-      </c>
-      <c r="O4">
-        <v>0.1305949600347003</v>
+        <v>0.1305950228380815</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <v>0.01140117565088172</v>
       </c>
       <c r="T4">
-        <v>0.01140117565088172</v>
-      </c>
-      <c r="U4">
         <v>0.005810724460484402</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -912,39 +900,36 @@
         <v>11121.37790380499</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>0.01217657866879079</v>
       </c>
       <c r="M5">
-        <v>0.01217639588324169</v>
+        <v>-3.081842643161159</v>
       </c>
       <c r="N5">
-        <v>-24.73860080904876</v>
-      </c>
-      <c r="O5">
-        <v>0.1303055852863699</v>
+        <v>0.1303055771195316</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="S5">
+        <v>0.01054629750562178</v>
       </c>
       <c r="T5">
-        <v>0.01054629750562178</v>
-      </c>
-      <c r="U5">
         <v>0.005378615578892375</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -977,39 +962,36 @@
         <v>3217.184269332193</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>0.02768735505150083</v>
       </c>
       <c r="M6">
-        <v>0.02768682823775014</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="N6">
-        <v>-4.088158608275006</v>
-      </c>
-      <c r="O6">
-        <v>0.1536298778276467</v>
+        <v>0.153629351013896</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="R6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S6" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="S6">
+        <v>0.02808270189208114</v>
       </c>
       <c r="T6">
-        <v>0.02808270189208114</v>
-      </c>
-      <c r="U6">
         <v>0.01431259111041814</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -1042,39 +1024,36 @@
         <v>9114.029299084839</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>0.02245514844913275</v>
       </c>
       <c r="M7">
-        <v>0.02245514844913274</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="N7">
-        <v>-4.088158608275006</v>
-      </c>
-      <c r="O7">
         <v>0.1502172036450432</v>
       </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="S7">
+        <v>0.02032434049312551</v>
       </c>
       <c r="T7">
-        <v>0.02032434049312551</v>
-      </c>
-      <c r="U7">
         <v>0.01036538034337393</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>24</v>
@@ -1107,39 +1086,36 @@
         <v>2939.521167822605</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>0.03204390610521873</v>
       </c>
       <c r="M8">
-        <v>0.03204359975659507</v>
+        <v>2.044079304137503</v>
       </c>
       <c r="N8">
-        <v>-4.245395477824045</v>
-      </c>
-      <c r="O8">
-        <v>0.1648429828868382</v>
+        <v>0.1648432438668065</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="S8">
+        <v>0.03501356607754194</v>
       </c>
       <c r="T8">
-        <v>0.03501356607754194</v>
-      </c>
-      <c r="U8">
         <v>0.0178449483212784</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -1172,39 +1148,36 @@
         <v>8914.442069500761</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>0.02380113533523158</v>
       </c>
       <c r="M9">
-        <v>0.0238011979793611</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="N9">
-        <v>-4.088158608275006</v>
-      </c>
-      <c r="O9">
-        <v>0.1565924543093531</v>
+        <v>0.1565925169534827</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="S9">
+        <v>0.02143838952360513</v>
       </c>
       <c r="T9">
-        <v>0.02143838952360513</v>
-      </c>
-      <c r="U9">
         <v>0.01093352740548596</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>24</v>
@@ -1237,39 +1210,36 @@
         <v>3133.912848982969</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>0.02500968046669393</v>
       </c>
       <c r="M10">
-        <v>0.02500965683818157</v>
+        <v>-2.075526678047311</v>
       </c>
       <c r="N10">
-        <v>-2.070285449062343</v>
-      </c>
-      <c r="O10">
-        <v>0.1429013324479194</v>
+        <v>0.1429013762431952</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" t="s">
         <v>76</v>
       </c>
+      <c r="S10">
+        <v>0.02861397732631402</v>
+      </c>
       <c r="T10">
-        <v>0.02861397732631402</v>
-      </c>
-      <c r="U10">
         <v>0.01458314333336168</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -1302,39 +1272,36 @@
         <v>9162.034509410019</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>0.01926060581777377</v>
       </c>
       <c r="M11">
-        <v>0.01926070875121593</v>
+        <v>2.119553001521041</v>
       </c>
       <c r="N11">
-        <v>-4.166777043049526</v>
-      </c>
-      <c r="O11">
-        <v>0.1396173939668902</v>
+        <v>0.139617291033448</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="R11" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" t="s">
         <v>77</v>
       </c>
+      <c r="S11">
+        <v>0.0196837651192888</v>
+      </c>
       <c r="T11">
-        <v>0.0196837651192888</v>
-      </c>
-      <c r="U11">
         <v>0.0100386672055425</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -1367,39 +1334,36 @@
         <v>4438.950331807797</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>0.006257244245233641</v>
       </c>
       <c r="M12">
-        <v>0.006257276371525608</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="N12">
-        <v>-4.088158608275006</v>
-      </c>
-      <c r="O12">
-        <v>0.05953617469358229</v>
+        <v>0.05953620681987425</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" t="s">
         <v>78</v>
       </c>
+      <c r="S12">
+        <v>0.008977306744415112</v>
+      </c>
       <c r="T12">
-        <v>0.008977306744415112</v>
-      </c>
-      <c r="U12">
         <v>0.004575321167829871</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>24</v>
@@ -1432,33 +1396,30 @@
         <v>13412.97367762722</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>0.004212674999830902</v>
       </c>
       <c r="M13">
-        <v>0.004212653398199897</v>
+        <v>2.308237244979888</v>
       </c>
       <c r="N13">
-        <v>-3.983334028575647</v>
-      </c>
-      <c r="O13">
-        <v>0.05780186210763183</v>
+        <v>0.05780195339155936</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" t="s">
         <v>79</v>
       </c>
+      <c r="S13">
+        <v>0.004534759639440797</v>
+      </c>
       <c r="T13">
-        <v>0.004534759639440797</v>
-      </c>
-      <c r="U13">
         <v>0.002312716575119863</v>
       </c>
     </row>
